--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\GitHub\BachelorRetraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF48CB0A-B1BE-42F9-9FB3-373AE27D8AD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8861F260-C249-4CC0-92C7-40E885FD3680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Rough Initial Test</t>
   </si>
@@ -159,10 +159,10 @@
     <t>Initialization</t>
   </si>
   <si>
-    <t>Seeded</t>
-  </si>
-  <si>
     <t>Random Kernel Copy</t>
+  </si>
+  <si>
+    <t>Fixed Seed</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,11 +237,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -268,14 +281,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D1C0A-1C85-4D07-9E76-CFF20D73C88C}">
   <dimension ref="B1:AB1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,12 +626,12 @@
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -656,13 +675,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>27</v>
@@ -699,7 +718,7 @@
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="5">
@@ -708,23 +727,23 @@
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>30</v>
@@ -761,7 +780,7 @@
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5">
@@ -770,24 +789,27 @@
       <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="N4" s="13">
+        <f>I$6</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2">
         <v>311</v>
@@ -821,7 +843,7 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="5">
@@ -830,25 +852,31 @@
       <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="s">
-        <v>20</v>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N12" si="0">I$6</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <f>$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>311</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>32</v>
@@ -879,7 +907,7 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="5">
@@ -888,24 +916,33 @@
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="14"/>
       <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="M6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <f>$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="R6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>33</v>
@@ -933,7 +970,7 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5">
@@ -942,25 +979,37 @@
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="14"/>
       <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="M7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" ref="O7:O12" si="1">$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>31</v>
@@ -985,7 +1034,7 @@
       <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="5">
@@ -994,26 +1043,41 @@
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="14"/>
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="M8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" ref="Q8:Q12" si="2">$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="U8" s="2">
         <v>0.1</v>
@@ -1041,7 +1105,7 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="5">
@@ -1050,27 +1114,45 @@
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="14"/>
       <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>20</v>
+      <c r="M9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <f>$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.1</v>
       </c>
       <c r="V9" s="2">
         <v>0.1</v>
@@ -1089,7 +1171,7 @@
       <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="5">
@@ -1098,28 +1180,49 @@
       <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="14"/>
       <c r="K10" s="2">
         <v>7</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2" t="s">
-        <v>20</v>
+      <c r="M10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
+        <f>$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <f>$I$11</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1238,7 @@
       <c r="E11" s="5">
         <v>5</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="5">
@@ -1144,27 +1247,51 @@
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="14"/>
       <c r="K11" s="2">
         <v>8</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="M11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <f>$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <f>$I$11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <f>$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -1179,7 +1306,7 @@
       <c r="E12" s="5">
         <v>6</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="5">
@@ -1188,7 +1315,52 @@
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <f>$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <f>$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <f>$I$11</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <f>$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <f>$I$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1203,7 +1375,7 @@
       <c r="E13" s="5">
         <v>7</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="5">
@@ -1212,7 +1384,7 @@
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -1227,7 +1399,7 @@
       <c r="E14" s="5">
         <v>8</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5">
@@ -1236,7 +1408,7 @@
       <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="1048575" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048575" s="1" t="s">

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\GitHub\BachelorRetraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8861F260-C249-4CC0-92C7-40E885FD3680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB89E4-A2F2-4625-932B-C41EB226C3E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$B$2:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$B$2:$I$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>Rough Initial Test</t>
   </si>
@@ -108,9 +108,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>Sidst</t>
-  </si>
-  <si>
     <t>Test Description</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Fixed Seed</t>
+  </si>
+  <si>
+    <t>0.008714</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -250,11 +250,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -295,6 +304,16 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,23 +629,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D1C0A-1C85-4D07-9E76-CFF20D73C88C}">
-  <dimension ref="B1:AB1048575"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
@@ -638,14 +658,39 @@
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -668,14 +713,15 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="15"/>
       <c r="K2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>3</v>
@@ -684,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>8</v>
@@ -704,8 +750,10 @@
       <c r="V2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -730,35 +778,36 @@
       <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="15"/>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>311</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U3" s="2">
         <v>0.1</v>
@@ -766,8 +815,10 @@
       <c r="V3" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -790,38 +841,39 @@
         <v>18</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J4" s="15"/>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="13">
+        <v>40</v>
+      </c>
+      <c r="N4" s="13" t="str">
         <f>I$6</f>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2">
         <v>311</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="2">
         <v>0.1</v>
@@ -829,8 +881,10 @@
       <c r="V4" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -853,23 +907,24 @@
         <v>18</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J5" s="15"/>
       <c r="K5" s="2">
         <v>2</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="13">
+        <v>41</v>
+      </c>
+      <c r="N5" s="13" t="str">
         <f t="shared" ref="N5:N12" si="0">I$6</f>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O5" s="13">
-        <f>$I$7</f>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -879,13 +934,13 @@
         <v>311</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U5" s="2">
         <v>0.1</v>
@@ -893,8 +948,10 @@
       <c r="V5" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="2:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -908,47 +965,50 @@
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="15"/>
       <c r="K6" s="2">
         <v>3</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="13">
+        <v>40</v>
+      </c>
+      <c r="N6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O6" s="13">
-        <f>$I$7</f>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="P6" s="13">
-        <f>$I$8</f>
+        <f t="shared" ref="P6:P12" si="1">$I$9</f>
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2">
         <v>0.1</v>
@@ -956,14 +1016,14 @@
       <c r="V6" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="5">
         <v>2</v>
       </c>
@@ -971,48 +1031,49 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2">
         <v>4</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="13">
+        <v>40</v>
+      </c>
+      <c r="N7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:O12" si="1">$I$7</f>
+        <f t="shared" ref="O7:O12" si="2">$I$8</f>
         <v>0</v>
       </c>
       <c r="P7" s="13">
-        <f>$I$8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="13">
-        <f>$I$8</f>
+        <f>$I$9</f>
         <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2">
         <v>0.1</v>
@@ -1020,64 +1081,67 @@
       <c r="V7" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2">
         <v>5</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="13">
+        <v>40</v>
+      </c>
+      <c r="N8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
       <c r="Q8" s="13">
-        <f t="shared" ref="Q8:Q12" si="2">$I$8</f>
+        <f t="shared" ref="Q8:Q12" si="3">$I$9</f>
         <v>0</v>
       </c>
       <c r="R8" s="13">
-        <f>$I$9</f>
+        <f>$I$10</f>
         <v>0</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U8" s="2">
         <v>0.1</v>
@@ -1085,19 +1149,15 @@
       <c r="V8" s="2">
         <v>0.1</v>
       </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -1106,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5">
         <v>500</v>
@@ -1115,37 +1175,38 @@
         <v>19</v>
       </c>
       <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2">
         <v>6</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="13">
+        <v>40</v>
+      </c>
+      <c r="N9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
       <c r="Q9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="13">
-        <f>$I$9</f>
+        <f>$I$10</f>
         <v>0</v>
       </c>
       <c r="S9" s="13">
-        <f>$I$10</f>
+        <f>$I$11</f>
         <v>0</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -1157,13 +1218,20 @@
       <c r="V9" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="18"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
@@ -1172,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="5">
         <v>500</v>
@@ -1181,41 +1249,42 @@
         <v>19</v>
       </c>
       <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2">
         <v>7</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="13">
+        <v>40</v>
+      </c>
+      <c r="N10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
       <c r="Q10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R10" s="13">
-        <f>$I$9</f>
+        <f>$I$10</f>
         <v>0</v>
       </c>
       <c r="S10" s="13">
-        <f>$I$10</f>
+        <f>$I$11</f>
         <v>0</v>
       </c>
       <c r="T10" s="13">
-        <f>$I$11</f>
+        <f>$I$12</f>
         <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
@@ -1224,13 +1293,15 @@
       <c r="V10" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
@@ -1239,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="5">
         <v>500</v>
@@ -1248,57 +1319,60 @@
         <v>19</v>
       </c>
       <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="2">
         <v>8</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="13">
+        <v>40</v>
+      </c>
+      <c r="N11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
       <c r="Q11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R11" s="13">
-        <f>$I$9</f>
+        <f>$I$10</f>
         <v>0</v>
       </c>
       <c r="S11" s="13">
-        <f>$I$10</f>
+        <f>$I$11</f>
         <v>0</v>
       </c>
       <c r="T11" s="13">
-        <f>$I$11</f>
+        <f>$I$12</f>
         <v>0</v>
       </c>
       <c r="U11" s="13">
-        <f>$I$12</f>
+        <f>$I$13</f>
         <v>0</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
@@ -1307,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5">
         <v>500</v>
@@ -1316,58 +1390,61 @@
         <v>19</v>
       </c>
       <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="2">
         <v>9</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="13">
+        <v>40</v>
+      </c>
+      <c r="N12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.008714</v>
       </c>
       <c r="O12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
       <c r="Q12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R12" s="13">
-        <f>$I$9</f>
+        <f>$I$10</f>
         <v>0</v>
       </c>
       <c r="S12" s="13">
-        <f>$I$10</f>
+        <f>$I$11</f>
         <v>0</v>
       </c>
       <c r="T12" s="13">
-        <f>$I$11</f>
+        <f>$I$12</f>
         <v>0</v>
       </c>
       <c r="U12" s="13">
-        <f>$I$12</f>
+        <f>$I$13</f>
         <v>0</v>
       </c>
       <c r="V12" s="13">
-        <f>$I$13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$I$14</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
         <v>7</v>
@@ -1376,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5">
         <v>500</v>
@@ -1385,37 +1462,121 @@
         <v>19</v>
       </c>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
       </c>
       <c r="E14" s="5">
         <v>8</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5">
         <v>500</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5">
+        <v>500</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="1048575" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1048575" s="1" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H1048576" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K13:V14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\GitHub\BachelorRetraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB89E4-A2F2-4625-932B-C41EB226C3E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583E0F2-B2E0-430A-AB2C-EB9F31C608B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
+    <workbookView xWindow="-23235" yWindow="1665" windowWidth="21465" windowHeight="11385" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>Fixed Seed</t>
   </si>
   <si>
-    <t>0.008714</t>
+    <t>0.005</t>
   </si>
 </sst>
 </file>
@@ -306,14 +306,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,7 +855,7 @@
       </c>
       <c r="N4" s="13" t="str">
         <f>I$6</f>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>20</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="N5" s="13" t="str">
         <f t="shared" ref="N5:N12" si="0">I$6</f>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O5" s="13">
         <f>$I$8</f>
@@ -988,7 +988,7 @@
       </c>
       <c r="N6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O6" s="13">
         <f>$I$8</f>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="N7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" ref="O7:O12" si="2">$I$8</f>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="N8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O8" s="13">
         <f t="shared" si="2"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="N9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O9" s="13">
         <f t="shared" si="2"/>
@@ -1218,7 +1218,7 @@
       <c r="V9" s="2">
         <v>0.1</v>
       </c>
-      <c r="W9" s="18"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="N10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O10" s="13">
         <f t="shared" si="2"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="2"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="N12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0.008714</v>
+        <v>0.005</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="2"/>
@@ -1463,18 +1463,18 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="15"/>
     </row>
     <row r="14" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,18 +1502,18 @@
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\GitHub\BachelorRetraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583E0F2-B2E0-430A-AB2C-EB9F31C608B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E8052A-381F-42F9-93E9-2C1A2D2E340C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23235" yWindow="1665" windowWidth="21465" windowHeight="11385" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$B$2:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$B$2:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>Rough Initial Test</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Learning Rate</t>
   </si>
   <si>
-    <t>Dense layers</t>
-  </si>
-  <si>
     <t>Hidden Activation</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>0 - 0.75</t>
   </si>
   <si>
-    <t>1 - 2500</t>
-  </si>
-  <si>
     <t>Initialization</t>
   </si>
   <si>
@@ -163,6 +157,9 @@
   </si>
   <si>
     <t>0.005</t>
+  </si>
+  <si>
+    <t>50 - 500</t>
   </si>
 </sst>
 </file>
@@ -309,12 +306,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D1C0A-1C85-4D07-9E76-CFF20D73C88C}">
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AB1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,65 +683,65 @@
     <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W2" s="15"/>
     </row>
@@ -764,50 +757,50 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5">
         <v>4000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="Q3" s="2">
         <v>311</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U3" s="2">
         <v>0.1</v>
@@ -829,51 +822,51 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5">
         <v>4000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N4" s="13" t="str">
         <f>I$6</f>
         <v>0.005</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="2">
         <v>311</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" s="2">
         <v>0.1</v>
@@ -886,7 +879,7 @@
     <row r="5" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
         <v>7</v>
@@ -895,52 +888,52 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="5">
         <v>4000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="2">
         <v>2</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13" t="str">
         <f t="shared" ref="N5:N12" si="0">I$6</f>
         <v>0.005</v>
       </c>
-      <c r="O5" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O5" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2">
         <v>311</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="2">
         <v>0.1</v>
@@ -965,50 +958,50 @@
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5">
         <v>552</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="2">
         <v>3</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" s="13">
         <f>$I$8</f>
         <v>0</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" ref="P6:P12" si="1">$I$9</f>
-        <v>0</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U6" s="2">
         <v>0.1</v>
@@ -1021,7 +1014,7 @@
     <row r="7" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5">
@@ -1031,13 +1024,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5">
         <v>500</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
@@ -1045,35 +1038,35 @@
         <v>4</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O7" s="13">
-        <f t="shared" ref="O7:O12" si="2">$I$8</f>
-        <v>0</v>
+      <c r="O7" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="1"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="Q7" s="13">
-        <f>$I$9</f>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U7" s="2">
         <v>0.1</v>
@@ -1086,25 +1079,23 @@
     <row r="8" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1000</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
@@ -1112,36 +1103,36 @@
         <v>5</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O8" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O8" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P8" s="13">
-        <f t="shared" si="1"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="13">
-        <f t="shared" ref="Q8:Q12" si="3">$I$9</f>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="R8" s="13">
-        <f>$I$10</f>
+        <f>$I$9</f>
         <v>0</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U8" s="2">
         <v>0.1</v>
@@ -1154,25 +1145,25 @@
     <row r="9" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5">
         <v>500</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1180,37 +1171,37 @@
         <v>6</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O9" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" si="1"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="Q9" s="13">
-        <f t="shared" si="3"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="R9" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
         <f>$I$10</f>
         <v>0</v>
       </c>
-      <c r="S9" s="13">
-        <f>$I$11</f>
-        <v>0</v>
-      </c>
       <c r="T9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U9" s="2">
         <v>0.1</v>
@@ -1228,16 +1219,16 @@
     <row r="10" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>34</v>
@@ -1246,7 +1237,7 @@
         <v>500</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -1254,41 +1245,41 @@
         <v>7</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O10" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O10" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P10" s="13">
-        <f t="shared" si="1"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="Q10" s="13">
-        <f t="shared" si="3"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="R10" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
         <f>$I$10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="13">
+      <c r="T10" s="13">
         <f>$I$11</f>
         <v>0</v>
       </c>
-      <c r="T10" s="13">
-        <f>$I$12</f>
-        <v>0</v>
-      </c>
       <c r="U10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V10" s="2">
         <v>0.1</v>
@@ -1298,16 +1289,16 @@
     <row r="11" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>35</v>
@@ -1316,7 +1307,7 @@
         <v>500</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
@@ -1324,61 +1315,61 @@
         <v>8</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O11" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O11" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P11" s="13">
-        <f t="shared" si="1"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" si="3"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="R11" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
         <f>$I$10</f>
         <v>0</v>
       </c>
-      <c r="S11" s="13">
+      <c r="T11" s="13">
         <f>$I$11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="13">
+      <c r="U11" s="13">
         <f>$I$12</f>
         <v>0</v>
       </c>
-      <c r="U11" s="13">
-        <f>$I$13</f>
-        <v>0</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>36</v>
@@ -1387,7 +1378,7 @@
         <v>500</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
@@ -1395,45 +1386,45 @@
         <v>9</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O12" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O12" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="P12" s="13">
-        <f t="shared" si="1"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="Q12" s="13">
-        <f t="shared" si="3"/>
+        <f>$I$8</f>
         <v>0</v>
       </c>
       <c r="R12" s="13">
+        <f>$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
         <f>$I$10</f>
         <v>0</v>
       </c>
-      <c r="S12" s="13">
+      <c r="T12" s="13">
         <f>$I$11</f>
         <v>0</v>
       </c>
-      <c r="T12" s="13">
+      <c r="U12" s="13">
         <f>$I$12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="13">
+      <c r="V12" s="13">
         <f>$I$13</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <f>$I$14</f>
         <v>0</v>
       </c>
       <c r="W12" s="15"/>
@@ -1441,25 +1432,25 @@
     <row r="13" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5">
         <v>500</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
@@ -1483,22 +1474,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G14" s="5">
         <v>500</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
@@ -1518,28 +1509,14 @@
     </row>
     <row r="15" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5">
-        <v>500</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1557,27 +1534,19 @@
     </row>
     <row r="16" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="W16" s="15"/>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1048576" s="1" t="s">
-        <v>19</v>
+    <row r="1048575" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H1048575" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K13:V14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\GitHub\BachelorRetraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E8052A-381F-42F9-93E9-2C1A2D2E340C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A66D6-887A-4C7E-BD74-A4AB64E47909}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Rough Initial Test</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>50 - 500</t>
+  </si>
+  <si>
+    <t>230</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:AB1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,12 +919,12 @@
         <f t="shared" ref="N5:N12" si="0">I$6</f>
         <v>0.005</v>
       </c>
-      <c r="O5" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="O5" s="13" t="str">
+        <f>$I$7</f>
+        <v>LSTM</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="2">
         <v>311</v>
@@ -983,13 +986,12 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O6" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O6" s="13" t="str">
+        <f>$I$7</f>
+        <v>LSTM</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
@@ -1032,7 +1034,9 @@
       <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="2">
         <v>4</v>
@@ -1047,17 +1051,16 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O7" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O7" s="13" t="str">
+        <f t="shared" ref="O7:O12" si="1">$I$7</f>
+        <v>LSTM</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="13" t="str">
+        <f t="shared" ref="Q7:Q12" si="2">$I$8</f>
+        <v>230</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>19</v>
@@ -1097,7 +1100,9 @@
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="2">
         <v>5</v>
@@ -1112,17 +1117,16 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O8" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>LSTM</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>230</v>
       </c>
       <c r="R8" s="13">
         <f>$I$9</f>
@@ -1180,17 +1184,16 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O9" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>LSTM</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>230</v>
       </c>
       <c r="R9" s="13">
         <f>$I$9</f>
@@ -1254,17 +1257,16 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O10" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>LSTM</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>230</v>
       </c>
       <c r="R10" s="13">
         <f>$I$9</f>
@@ -1324,17 +1326,16 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O11" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>LSTM</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>230</v>
       </c>
       <c r="R11" s="13">
         <f>$I$9</f>
@@ -1395,17 +1396,16 @@
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="O12" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="13">
-        <f>$I$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>$I$8</f>
-        <v>0</v>
+      <c r="O12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>LSTM</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>230</v>
       </c>
       <c r="R12" s="13">
         <f>$I$9</f>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsFolders\Documents\GitHub\BachelorRetraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A66D6-887A-4C7E-BD74-A4AB64E47909}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E577E-C3B0-4B5E-9643-2A24862BCC6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF8A6D4-D414-4C09-90CE-FE9BB680517A}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>tanh, ReLU</t>
   </si>
   <si>
-    <t>0 - 0.75</t>
-  </si>
-  <si>
     <t>Initialization</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>230</t>
+  </si>
+  <si>
+    <t>0 - 0.4</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:AB1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>3</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>19</v>
@@ -847,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="13" t="str">
         <f>I$6</f>
@@ -913,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="13" t="str">
         <f t="shared" ref="N5:N12" si="0">I$6</f>
@@ -970,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="2">
@@ -980,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1045,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1094,14 +1094,14 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="2">
@@ -1111,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1178,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1251,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1320,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5">
         <v>500</v>
@@ -1390,7 +1390,7 @@
         <v>26</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1444,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5">
         <v>500</v>
